--- a/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_03_end.xlsx
+++ b/story/Activity Story 活动剧情/act17d0 Operation Originium Dust 源石尘行动/level_act17d0_03_end.xlsx
@@ -828,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ash"]ブリッツ、オクフェンさんを呼んできて。
+    <t xml:space="preserve">[name="Ash"]Blitz、オクフェンさんを呼んできて。
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blitz"]Err... We’re... um...
+    <t xml:space="preserve">[name="Blitz"]Err... We're... um...
 </t>
   </si>
   <si>
